--- a/ConceptMap-R5-VirtualServiceDetail-elements-for-R4.xlsx
+++ b/ConceptMap-R5-VirtualServiceDetail-elements-for-R4.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T13:17:34.9208822-06:00</t>
+    <t>2026-02-09T22:05:44.3618514-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ConceptMap-R5-VirtualServiceDetail-elements-for-R4.xlsx
+++ b/ConceptMap-R5-VirtualServiceDetail-elements-for-R4.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T22:05:44.3618514-06:00</t>
+    <t>2026-02-17T14:42:27.6910071-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -120,7 +120,7 @@
     <t>channelType</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-VirtualServiceDetail:channelType</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-VirtualServiceDetail:http://hl7.org/fhir/5.0/StructureDefinition/extension-VirtualServiceDetail.channelType</t>
   </si>
   <si>
     <t>VirtualServiceDetail.address[x]</t>
@@ -129,7 +129,7 @@
     <t>address[x]</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-VirtualServiceDetail:address</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-VirtualServiceDetail:http://hl7.org/fhir/5.0/StructureDefinition/extension-VirtualServiceDetail.address</t>
   </si>
   <si>
     <t>VirtualServiceDetail.additionalInfo</t>
@@ -138,7 +138,7 @@
     <t>additionalInfo</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-VirtualServiceDetail:additionalInfo</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-VirtualServiceDetail:http://hl7.org/fhir/5.0/StructureDefinition/extension-VirtualServiceDetail.additionalInfo</t>
   </si>
   <si>
     <t>VirtualServiceDetail.maxParticipants</t>
@@ -147,7 +147,7 @@
     <t>maxParticipants</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-VirtualServiceDetail:maxParticipants</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-VirtualServiceDetail:http://hl7.org/fhir/5.0/StructureDefinition/extension-VirtualServiceDetail.maxParticipants</t>
   </si>
   <si>
     <t>VirtualServiceDetail.sessionKey</t>
@@ -156,7 +156,7 @@
     <t>sessionKey</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-VirtualServiceDetail:sessionKey</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-VirtualServiceDetail:http://hl7.org/fhir/5.0/StructureDefinition/extension-VirtualServiceDetail.sessionKey</t>
   </si>
 </sst>
 </file>
